--- a/Utilities/DeckLinkCapabilities/Data/Display Modes.xlsx
+++ b/Utilities/DeckLinkCapabilities/Data/Display Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Alax.Info\Repository-Private\Utilities\DeckLinkCapabilities\_Bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Alax.Info\Repository-Public\Utilities\DeckLinkCapabilities\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,15 @@
     <sheet name="DeckLink HD Extreme 3D" sheetId="2" r:id="rId2"/>
     <sheet name="DeckLink SDI" sheetId="3" r:id="rId3"/>
     <sheet name="DeckLink Mini Recorder" sheetId="5" r:id="rId4"/>
-    <sheet name="Studio 4K" sheetId="6" r:id="rId5"/>
+    <sheet name="DeckLink Mini Monitor" sheetId="7" r:id="rId5"/>
+    <sheet name="Studio 4K" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DeckLink HD Extreme 3D'!$B$31:$N$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DeckLink Mini Recorder'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DeckLink SDI'!$B$25:$N$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Intensity Pro'!$B$27:$N$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Studio 4K'!$B$39:$N$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Studio 4K'!$B$39:$N$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="160">
   <si>
     <t>Intensity Pro</t>
   </si>
@@ -428,6 +429,93 @@
   </si>
   <si>
     <t>Pixel Formats (bmdFormat)</t>
+  </si>
+  <si>
+    <t>1080p23.98</t>
+  </si>
+  <si>
+    <t>1080p24</t>
+  </si>
+  <si>
+    <t>1080p25</t>
+  </si>
+  <si>
+    <t>1080p29.97</t>
+  </si>
+  <si>
+    <t>1080p30</t>
+  </si>
+  <si>
+    <t>1080i50</t>
+  </si>
+  <si>
+    <t>1080i59.94</t>
+  </si>
+  <si>
+    <t>1080i60</t>
+  </si>
+  <si>
+    <t>720p50</t>
+  </si>
+  <si>
+    <t>720p59.94</t>
+  </si>
+  <si>
+    <t>720p60</t>
+  </si>
+  <si>
+    <t>API Version 10.4.2</t>
+  </si>
+  <si>
+    <t>Display Mode (bmdModeXxx)</t>
+  </si>
+  <si>
+    <t>NTSC2398</t>
+  </si>
+  <si>
+    <t>NTSCp</t>
+  </si>
+  <si>
+    <t>PALp</t>
+  </si>
+  <si>
+    <t>HD1080p2398</t>
+  </si>
+  <si>
+    <t>HD1080p24</t>
+  </si>
+  <si>
+    <t>HD1080p25</t>
+  </si>
+  <si>
+    <t>HD1080p2997</t>
+  </si>
+  <si>
+    <t>HD1080p30</t>
+  </si>
+  <si>
+    <t>HD1080i50</t>
+  </si>
+  <si>
+    <t>HD1080i5994</t>
+  </si>
+  <si>
+    <t>HD1080i6000</t>
+  </si>
+  <si>
+    <t>HD720p50</t>
+  </si>
+  <si>
+    <t>HD720p5994</t>
+  </si>
+  <si>
+    <t>HD720p60</t>
+  </si>
+  <si>
+    <t>Pixel Formats (bmdFormatXxx)</t>
+  </si>
+  <si>
+    <t>Display Mode Flags (bmdDisplayModeColorspaceXxx)</t>
   </si>
 </sst>
 </file>
@@ -516,7 +604,10 @@
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -647,7 +738,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:N23" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:N23" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="B7:N23"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -668,8 +759,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="B39:N69" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B39:N69"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Display Mode"/>
+    <tableColumn id="3" name="Display Mode FourCC"/>
+    <tableColumn id="4" name="Resolution Width"/>
+    <tableColumn id="5" name="Resolution Height"/>
+    <tableColumn id="6" name="Frame Duration"/>
+    <tableColumn id="7" name="Time Scale"/>
+    <tableColumn id="8" name="Frame Rate, per second"/>
+    <tableColumn id="9" name="Frame Length, millisecond"/>
+    <tableColumn id="10" name="Field Dominance"/>
+    <tableColumn id="11" name="Field Dominance FourCC"/>
+    <tableColumn id="12" name="Display Mode Flags"/>
+    <tableColumn id="13" name="Pixel Formats"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B27:N43" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B27:N43" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="B27:N43"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -691,51 +804,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B7:N27" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B7:N27" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B7:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="32"/>
-    <tableColumn id="2" name="Display Mode" dataDxfId="31"/>
-    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="30"/>
-    <tableColumn id="4" name="Resolution Width" dataDxfId="29"/>
-    <tableColumn id="5" name="Resolution Height" dataDxfId="28"/>
-    <tableColumn id="6" name="Frame Duration" dataDxfId="27"/>
-    <tableColumn id="7" name="Time Scale" dataDxfId="26"/>
-    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="25"/>
-    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="24"/>
-    <tableColumn id="10" name="Field Dominance" dataDxfId="23"/>
-    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="22"/>
-    <tableColumn id="12" name="Display Mode Flags" dataDxfId="21"/>
-    <tableColumn id="13" name="Pixel Formats" dataDxfId="20"/>
+    <tableColumn id="1" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" name="Display Mode" dataDxfId="32"/>
+    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="31"/>
+    <tableColumn id="4" name="Resolution Width" dataDxfId="30"/>
+    <tableColumn id="5" name="Resolution Height" dataDxfId="29"/>
+    <tableColumn id="6" name="Frame Duration" dataDxfId="28"/>
+    <tableColumn id="7" name="Time Scale" dataDxfId="27"/>
+    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="26"/>
+    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="25"/>
+    <tableColumn id="10" name="Field Dominance" dataDxfId="24"/>
+    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="23"/>
+    <tableColumn id="12" name="Display Mode Flags" dataDxfId="22"/>
+    <tableColumn id="13" name="Pixel Formats" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="B31:N51" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="B31:N51" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B31:N51"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="17"/>
-    <tableColumn id="2" name="Display Mode" dataDxfId="16"/>
-    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="15"/>
-    <tableColumn id="4" name="Resolution Width" dataDxfId="14"/>
-    <tableColumn id="5" name="Resolution Height" dataDxfId="13"/>
-    <tableColumn id="6" name="Frame Duration" dataDxfId="12"/>
-    <tableColumn id="7" name="Time Scale" dataDxfId="11"/>
-    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="10"/>
-    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="9"/>
-    <tableColumn id="10" name="Field Dominance" dataDxfId="8"/>
-    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="7"/>
-    <tableColumn id="12" name="Display Mode Flags" dataDxfId="6"/>
-    <tableColumn id="13" name="Pixel Formats" dataDxfId="5"/>
+    <tableColumn id="1" name="Name" dataDxfId="18"/>
+    <tableColumn id="2" name="Display Mode" dataDxfId="17"/>
+    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="16"/>
+    <tableColumn id="4" name="Resolution Width" dataDxfId="15"/>
+    <tableColumn id="5" name="Resolution Height" dataDxfId="14"/>
+    <tableColumn id="6" name="Frame Duration" dataDxfId="13"/>
+    <tableColumn id="7" name="Time Scale" dataDxfId="12"/>
+    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="11"/>
+    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="10"/>
+    <tableColumn id="10" name="Field Dominance" dataDxfId="9"/>
+    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="8"/>
+    <tableColumn id="12" name="Display Mode Flags" dataDxfId="7"/>
+    <tableColumn id="13" name="Pixel Formats" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B7:N21" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B7:N21" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B7:N21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -757,7 +870,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="B25:N39" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="B25:N39" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B25:N39"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -779,11 +892,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B7:N23" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B7:N23" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B7:N23"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Display Mode"/>
+    <tableColumn id="2" name="Display Mode (bmdModeXxx)"/>
     <tableColumn id="3" name="Display Mode FourCC"/>
     <tableColumn id="4" name="Resolution Width"/>
     <tableColumn id="5" name="Resolution Height"/>
@@ -793,15 +906,37 @@
     <tableColumn id="9" name="Frame Length, millisecond"/>
     <tableColumn id="10" name="Field Dominance"/>
     <tableColumn id="11" name="Field Dominance FourCC"/>
-    <tableColumn id="12" name="Display Mode Flags"/>
-    <tableColumn id="13" name="Pixel Formats"/>
+    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
+    <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table18" displayName="Table18" ref="B7:N34" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B7:N23" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B7:N23"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Display Mode (bmdModeXxx)"/>
+    <tableColumn id="3" name="Display Mode FourCC"/>
+    <tableColumn id="4" name="Resolution Width"/>
+    <tableColumn id="5" name="Resolution Height"/>
+    <tableColumn id="6" name="Frame Duration"/>
+    <tableColumn id="7" name="Time Scale"/>
+    <tableColumn id="8" name="Frame Rate, per second"/>
+    <tableColumn id="9" name="Frame Length, millisecond"/>
+    <tableColumn id="10" name="Field Dominance"/>
+    <tableColumn id="11" name="Field Dominance FourCC"/>
+    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
+    <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table18" displayName="Table18" ref="B7:N34" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Display Mode"/>
@@ -816,28 +951,6 @@
     <tableColumn id="11" name="Field Dominance FourCC"/>
     <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspace)"/>
     <tableColumn id="13" name="Pixel Formats (bmdFormat)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="B39:N69" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B39:N69"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Display Mode"/>
-    <tableColumn id="3" name="Display Mode FourCC"/>
-    <tableColumn id="4" name="Resolution Width"/>
-    <tableColumn id="5" name="Resolution Height"/>
-    <tableColumn id="6" name="Frame Duration"/>
-    <tableColumn id="7" name="Time Scale"/>
-    <tableColumn id="8" name="Frame Rate, per second"/>
-    <tableColumn id="9" name="Frame Length, millisecond"/>
-    <tableColumn id="10" name="Field Dominance"/>
-    <tableColumn id="11" name="Field Dominance FourCC"/>
-    <tableColumn id="12" name="Display Mode Flags"/>
-    <tableColumn id="13" name="Pixel Formats"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5614,7 +5727,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5624,8 +5737,8 @@
     <col min="4" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5650,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -5680,10 +5793,10 @@
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5691,7 +5804,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -5721,10 +5834,10 @@
         <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5732,7 +5845,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -5762,10 +5875,10 @@
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5773,7 +5886,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -5803,10 +5916,10 @@
         <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5814,7 +5927,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -5844,10 +5957,10 @@
         <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5855,7 +5968,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -5885,10 +5998,10 @@
         <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5896,7 +6009,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -5926,10 +6039,10 @@
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5937,7 +6050,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -5967,10 +6080,10 @@
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5978,7 +6091,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -6008,10 +6121,10 @@
         <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6019,7 +6132,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
@@ -6049,10 +6162,10 @@
         <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -6060,7 +6173,7 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -6090,10 +6203,10 @@
         <v>26</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -6101,7 +6214,7 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -6131,10 +6244,10 @@
         <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -6142,7 +6255,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -6172,10 +6285,10 @@
         <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -6183,7 +6296,7 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
         <v>63</v>
@@ -6213,10 +6326,10 @@
         <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -6224,7 +6337,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -6254,10 +6367,10 @@
         <v>26</v>
       </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -6265,7 +6378,7 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
@@ -6295,10 +6408,10 @@
         <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -6306,7 +6419,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -6336,10 +6449,10 @@
         <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -6356,9 +6469,751 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>720</v>
+      </c>
+      <c r="F8">
+        <v>486</v>
+      </c>
+      <c r="G8">
+        <v>1001</v>
+      </c>
+      <c r="H8">
+        <v>30000</v>
+      </c>
+      <c r="I8">
+        <v>29.97</v>
+      </c>
+      <c r="J8">
+        <v>333666</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>720</v>
+      </c>
+      <c r="F9">
+        <v>486</v>
+      </c>
+      <c r="G9">
+        <v>1001</v>
+      </c>
+      <c r="H9">
+        <v>24000</v>
+      </c>
+      <c r="I9">
+        <v>23.975999999999999</v>
+      </c>
+      <c r="J9">
+        <v>417083</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>720</v>
+      </c>
+      <c r="F10">
+        <v>576</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>25000</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>400000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>720</v>
+      </c>
+      <c r="F11">
+        <v>486</v>
+      </c>
+      <c r="G11">
+        <v>1001</v>
+      </c>
+      <c r="H11">
+        <v>60000</v>
+      </c>
+      <c r="I11">
+        <v>59.94</v>
+      </c>
+      <c r="J11">
+        <v>166833</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>720</v>
+      </c>
+      <c r="F12">
+        <v>576</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>50000</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>200000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1920</v>
+      </c>
+      <c r="F13">
+        <v>1080</v>
+      </c>
+      <c r="G13">
+        <v>1001</v>
+      </c>
+      <c r="H13">
+        <v>24000</v>
+      </c>
+      <c r="I13">
+        <v>23.975999999999999</v>
+      </c>
+      <c r="J13">
+        <v>417083</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>1920</v>
+      </c>
+      <c r="F14">
+        <v>1080</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>24000</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>416666</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>1920</v>
+      </c>
+      <c r="F15">
+        <v>1080</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>25000</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>400000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>1920</v>
+      </c>
+      <c r="F16">
+        <v>1080</v>
+      </c>
+      <c r="G16">
+        <v>1001</v>
+      </c>
+      <c r="H16">
+        <v>30000</v>
+      </c>
+      <c r="I16">
+        <v>29.97</v>
+      </c>
+      <c r="J16">
+        <v>333666</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1920</v>
+      </c>
+      <c r="F17">
+        <v>1080</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>30000</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>333333</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>1920</v>
+      </c>
+      <c r="F18">
+        <v>1080</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>25000</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>400000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>1920</v>
+      </c>
+      <c r="F19">
+        <v>1080</v>
+      </c>
+      <c r="G19">
+        <v>1001</v>
+      </c>
+      <c r="H19">
+        <v>30000</v>
+      </c>
+      <c r="I19">
+        <v>29.97</v>
+      </c>
+      <c r="J19">
+        <v>333666</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>1920</v>
+      </c>
+      <c r="F20">
+        <v>1080</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>30000</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>333333</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>1280</v>
+      </c>
+      <c r="F21">
+        <v>720</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>50000</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>200000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>1280</v>
+      </c>
+      <c r="F22">
+        <v>720</v>
+      </c>
+      <c r="G22">
+        <v>1001</v>
+      </c>
+      <c r="H22">
+        <v>60000</v>
+      </c>
+      <c r="I22">
+        <v>59.94</v>
+      </c>
+      <c r="J22">
+        <v>166833</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>1280</v>
+      </c>
+      <c r="F23">
+        <v>720</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>60000</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>166666</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/DeckLinkCapabilities/Data/Display Modes.xlsx
+++ b/Utilities/DeckLinkCapabilities/Data/Display Modes.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intensity Pro" sheetId="1" r:id="rId1"/>
-    <sheet name="DeckLink HD Extreme 3D" sheetId="2" r:id="rId2"/>
-    <sheet name="DeckLink SDI" sheetId="3" r:id="rId3"/>
-    <sheet name="DeckLink Mini Recorder" sheetId="5" r:id="rId4"/>
-    <sheet name="DeckLink Mini Monitor" sheetId="7" r:id="rId5"/>
-    <sheet name="Studio 4K" sheetId="6" r:id="rId6"/>
+    <sheet name="Intensity Pro 4K" sheetId="8" r:id="rId2"/>
+    <sheet name="DeckLink HD Extreme 3D" sheetId="2" r:id="rId3"/>
+    <sheet name="DeckLink SDI" sheetId="3" r:id="rId4"/>
+    <sheet name="DeckLink Mini Recorder" sheetId="5" r:id="rId5"/>
+    <sheet name="DeckLink Mini Monitor" sheetId="7" r:id="rId6"/>
+    <sheet name="Studio 4K" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DeckLink HD Extreme 3D'!$B$31:$N$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DeckLink Mini Recorder'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DeckLink SDI'!$B$25:$N$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DeckLink HD Extreme 3D'!$B$31:$N$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DeckLink Mini Recorder'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DeckLink SDI'!$B$25:$N$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Intensity Pro'!$B$27:$N$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Studio 4K'!$B$39:$N$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Intensity Pro 4K'!$B$32:$N$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Studio 4K'!$B$39:$N$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="175">
   <si>
     <t>Intensity Pro</t>
   </si>
@@ -516,6 +518,51 @@
   </si>
   <si>
     <t>Display Mode Flags (bmdDisplayModeColorspaceXxx)</t>
+  </si>
+  <si>
+    <t>API Version 10.4</t>
+  </si>
+  <si>
+    <t>Intensity Pro 4K</t>
+  </si>
+  <si>
+    <t>1080p50</t>
+  </si>
+  <si>
+    <t>1080p59.94</t>
+  </si>
+  <si>
+    <t>1080p60</t>
+  </si>
+  <si>
+    <t>2160p23.98</t>
+  </si>
+  <si>
+    <t>bmdMode4K2160p2398</t>
+  </si>
+  <si>
+    <t>2160p24</t>
+  </si>
+  <si>
+    <t>bmdMode4K2160p24</t>
+  </si>
+  <si>
+    <t>2160p25</t>
+  </si>
+  <si>
+    <t>bmdMode4K2160p25</t>
+  </si>
+  <si>
+    <t>2160p29.97</t>
+  </si>
+  <si>
+    <t>bmdMode4K2160p2997</t>
+  </si>
+  <si>
+    <t>2160p30</t>
+  </si>
+  <si>
+    <t>bmdMode4K2160p30</t>
   </si>
 </sst>
 </file>
@@ -604,8 +651,12 @@
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -613,6 +664,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -738,7 +792,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:N23" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:N23" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="B7:N23"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -760,7 +814,50 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="B39:N69" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B7:N23" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B7:N23"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Display Mode (bmdModeXxx)"/>
+    <tableColumn id="3" name="Display Mode FourCC"/>
+    <tableColumn id="4" name="Resolution Width"/>
+    <tableColumn id="5" name="Resolution Height"/>
+    <tableColumn id="6" name="Frame Duration"/>
+    <tableColumn id="7" name="Time Scale"/>
+    <tableColumn id="8" name="Frame Rate, per second"/>
+    <tableColumn id="9" name="Frame Length, millisecond"/>
+    <tableColumn id="10" name="Field Dominance"/>
+    <tableColumn id="11" name="Field Dominance FourCC"/>
+    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
+    <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table18" displayName="Table18" ref="B7:N34" totalsRowShown="0" headerRowDxfId="3">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Display Mode"/>
+    <tableColumn id="3" name="Display Mode FourCC"/>
+    <tableColumn id="4" name="Resolution Width"/>
+    <tableColumn id="5" name="Resolution Height"/>
+    <tableColumn id="6" name="Frame Duration"/>
+    <tableColumn id="7" name="Time Scale"/>
+    <tableColumn id="8" name="Frame Rate, per second"/>
+    <tableColumn id="9" name="Frame Length, millisecond"/>
+    <tableColumn id="10" name="Field Dominance"/>
+    <tableColumn id="11" name="Field Dominance FourCC"/>
+    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspace)"/>
+    <tableColumn id="13" name="Pixel Formats (bmdFormat)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="B39:N69" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B39:N69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -782,7 +879,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B27:N43" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B27:N43" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="B27:N43"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -804,51 +901,95 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B7:N27" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="B7:N27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table112" displayName="Table112" ref="B7:N28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B7:N28"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" name="Display Mode" dataDxfId="32"/>
-    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="31"/>
-    <tableColumn id="4" name="Resolution Width" dataDxfId="30"/>
-    <tableColumn id="5" name="Resolution Height" dataDxfId="29"/>
-    <tableColumn id="6" name="Frame Duration" dataDxfId="28"/>
-    <tableColumn id="7" name="Time Scale" dataDxfId="27"/>
-    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="26"/>
-    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="25"/>
-    <tableColumn id="10" name="Field Dominance" dataDxfId="24"/>
-    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="23"/>
-    <tableColumn id="12" name="Display Mode Flags" dataDxfId="22"/>
-    <tableColumn id="13" name="Pixel Formats" dataDxfId="21"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Display Mode"/>
+    <tableColumn id="3" name="Display Mode FourCC"/>
+    <tableColumn id="4" name="Resolution Width"/>
+    <tableColumn id="5" name="Resolution Height"/>
+    <tableColumn id="6" name="Frame Duration"/>
+    <tableColumn id="7" name="Time Scale"/>
+    <tableColumn id="8" name="Frame Rate, per second"/>
+    <tableColumn id="9" name="Frame Length, millisecond"/>
+    <tableColumn id="10" name="Field Dominance"/>
+    <tableColumn id="11" name="Field Dominance FourCC"/>
+    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
+    <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="B31:N51" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B31:N51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table213" displayName="Table213" ref="B32:N53" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B32:N53"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="18"/>
-    <tableColumn id="2" name="Display Mode" dataDxfId="17"/>
-    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="16"/>
-    <tableColumn id="4" name="Resolution Width" dataDxfId="15"/>
-    <tableColumn id="5" name="Resolution Height" dataDxfId="14"/>
-    <tableColumn id="6" name="Frame Duration" dataDxfId="13"/>
-    <tableColumn id="7" name="Time Scale" dataDxfId="12"/>
-    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="11"/>
-    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="10"/>
-    <tableColumn id="10" name="Field Dominance" dataDxfId="9"/>
-    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="8"/>
-    <tableColumn id="12" name="Display Mode Flags" dataDxfId="7"/>
-    <tableColumn id="13" name="Pixel Formats" dataDxfId="6"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Display Mode"/>
+    <tableColumn id="3" name="Display Mode FourCC"/>
+    <tableColumn id="4" name="Resolution Width"/>
+    <tableColumn id="5" name="Resolution Height"/>
+    <tableColumn id="6" name="Frame Duration"/>
+    <tableColumn id="7" name="Time Scale"/>
+    <tableColumn id="8" name="Frame Rate, per second"/>
+    <tableColumn id="9" name="Frame Length, millisecond"/>
+    <tableColumn id="10" name="Field Dominance"/>
+    <tableColumn id="11" name="Field Dominance FourCC"/>
+    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
+    <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B7:N21" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B7:N27" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B7:N27"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" name="Display Mode" dataDxfId="34"/>
+    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="33"/>
+    <tableColumn id="4" name="Resolution Width" dataDxfId="32"/>
+    <tableColumn id="5" name="Resolution Height" dataDxfId="31"/>
+    <tableColumn id="6" name="Frame Duration" dataDxfId="30"/>
+    <tableColumn id="7" name="Time Scale" dataDxfId="29"/>
+    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="28"/>
+    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="27"/>
+    <tableColumn id="10" name="Field Dominance" dataDxfId="26"/>
+    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="25"/>
+    <tableColumn id="12" name="Display Mode Flags" dataDxfId="24"/>
+    <tableColumn id="13" name="Pixel Formats" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="B31:N51" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B31:N51"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" name="Display Mode" dataDxfId="19"/>
+    <tableColumn id="3" name="Display Mode FourCC" dataDxfId="18"/>
+    <tableColumn id="4" name="Resolution Width" dataDxfId="17"/>
+    <tableColumn id="5" name="Resolution Height" dataDxfId="16"/>
+    <tableColumn id="6" name="Frame Duration" dataDxfId="15"/>
+    <tableColumn id="7" name="Time Scale" dataDxfId="14"/>
+    <tableColumn id="8" name="Frame Rate, per second" dataDxfId="13"/>
+    <tableColumn id="9" name="Frame Length, millisecond" dataDxfId="12"/>
+    <tableColumn id="10" name="Field Dominance" dataDxfId="11"/>
+    <tableColumn id="11" name="Field Dominance FourCC" dataDxfId="10"/>
+    <tableColumn id="12" name="Display Mode Flags" dataDxfId="9"/>
+    <tableColumn id="13" name="Pixel Formats" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B7:N21" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B7:N21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -869,8 +1010,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="B25:N39" totalsRowShown="0" headerRowDxfId="4">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="B25:N39" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B25:N39"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -891,8 +1032,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B7:N23" totalsRowShown="0" headerRowDxfId="3">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B7:N23" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B7:N23"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Name"/>
@@ -908,49 +1049,6 @@
     <tableColumn id="11" name="Field Dominance FourCC"/>
     <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
     <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B7:N23" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B7:N23"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Display Mode (bmdModeXxx)"/>
-    <tableColumn id="3" name="Display Mode FourCC"/>
-    <tableColumn id="4" name="Resolution Width"/>
-    <tableColumn id="5" name="Resolution Height"/>
-    <tableColumn id="6" name="Frame Duration"/>
-    <tableColumn id="7" name="Time Scale"/>
-    <tableColumn id="8" name="Frame Rate, per second"/>
-    <tableColumn id="9" name="Frame Length, millisecond"/>
-    <tableColumn id="10" name="Field Dominance"/>
-    <tableColumn id="11" name="Field Dominance FourCC"/>
-    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspaceXxx)"/>
-    <tableColumn id="13" name="Pixel Formats (bmdFormatXxx)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table18" displayName="Table18" ref="B7:N34" totalsRowShown="0" headerRowDxfId="2">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Display Mode"/>
-    <tableColumn id="3" name="Display Mode FourCC"/>
-    <tableColumn id="4" name="Resolution Width"/>
-    <tableColumn id="5" name="Resolution Height"/>
-    <tableColumn id="6" name="Frame Duration"/>
-    <tableColumn id="7" name="Time Scale"/>
-    <tableColumn id="8" name="Frame Rate, per second"/>
-    <tableColumn id="9" name="Frame Length, millisecond"/>
-    <tableColumn id="10" name="Field Dominance"/>
-    <tableColumn id="11" name="Field Dominance FourCC"/>
-    <tableColumn id="12" name="Display Mode Flags (bmdDisplayModeColorspace)"/>
-    <tableColumn id="13" name="Pixel Formats (bmdFormat)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2666,6 +2764,1863 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>720</v>
+      </c>
+      <c r="F8">
+        <v>486</v>
+      </c>
+      <c r="G8">
+        <v>1001</v>
+      </c>
+      <c r="H8">
+        <v>30000</v>
+      </c>
+      <c r="I8">
+        <v>29.97</v>
+      </c>
+      <c r="J8">
+        <v>333666</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>720</v>
+      </c>
+      <c r="F9">
+        <v>576</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>25000</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>400000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1920</v>
+      </c>
+      <c r="F10">
+        <v>1080</v>
+      </c>
+      <c r="G10">
+        <v>1001</v>
+      </c>
+      <c r="H10">
+        <v>24000</v>
+      </c>
+      <c r="I10">
+        <v>23.975999999999999</v>
+      </c>
+      <c r="J10">
+        <v>417083</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>1920</v>
+      </c>
+      <c r="F11">
+        <v>1080</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>24000</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>416666</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>1920</v>
+      </c>
+      <c r="F12">
+        <v>1080</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>25000</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>400000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>1920</v>
+      </c>
+      <c r="F13">
+        <v>1080</v>
+      </c>
+      <c r="G13">
+        <v>1001</v>
+      </c>
+      <c r="H13">
+        <v>30000</v>
+      </c>
+      <c r="I13">
+        <v>29.97</v>
+      </c>
+      <c r="J13">
+        <v>333666</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>1920</v>
+      </c>
+      <c r="F14">
+        <v>1080</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>30000</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>333333</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>1920</v>
+      </c>
+      <c r="F15">
+        <v>1080</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>25000</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>400000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>1920</v>
+      </c>
+      <c r="F16">
+        <v>1080</v>
+      </c>
+      <c r="G16">
+        <v>1001</v>
+      </c>
+      <c r="H16">
+        <v>30000</v>
+      </c>
+      <c r="I16">
+        <v>29.97</v>
+      </c>
+      <c r="J16">
+        <v>333666</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>1920</v>
+      </c>
+      <c r="F17">
+        <v>1080</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>30000</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>333333</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>1920</v>
+      </c>
+      <c r="F18">
+        <v>1080</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>50000</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>200000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>1920</v>
+      </c>
+      <c r="F19">
+        <v>1080</v>
+      </c>
+      <c r="G19">
+        <v>1001</v>
+      </c>
+      <c r="H19">
+        <v>60000</v>
+      </c>
+      <c r="I19">
+        <v>59.94</v>
+      </c>
+      <c r="J19">
+        <v>166833</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20">
+        <v>1920</v>
+      </c>
+      <c r="F20">
+        <v>1080</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>60000</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>166666</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>1280</v>
+      </c>
+      <c r="F21">
+        <v>720</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>50000</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>200000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>1280</v>
+      </c>
+      <c r="F22">
+        <v>720</v>
+      </c>
+      <c r="G22">
+        <v>1001</v>
+      </c>
+      <c r="H22">
+        <v>60000</v>
+      </c>
+      <c r="I22">
+        <v>59.94</v>
+      </c>
+      <c r="J22">
+        <v>166833</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>1280</v>
+      </c>
+      <c r="F23">
+        <v>720</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>60000</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>166666</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24">
+        <v>3840</v>
+      </c>
+      <c r="F24">
+        <v>2160</v>
+      </c>
+      <c r="G24">
+        <v>1001</v>
+      </c>
+      <c r="H24">
+        <v>24000</v>
+      </c>
+      <c r="I24">
+        <v>23.975999999999999</v>
+      </c>
+      <c r="J24">
+        <v>417083</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25">
+        <v>3840</v>
+      </c>
+      <c r="F25">
+        <v>2160</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>24000</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>416666</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26">
+        <v>3840</v>
+      </c>
+      <c r="F26">
+        <v>2160</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>25000</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>400000</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27">
+        <v>3840</v>
+      </c>
+      <c r="F27">
+        <v>2160</v>
+      </c>
+      <c r="G27">
+        <v>1001</v>
+      </c>
+      <c r="H27">
+        <v>30000</v>
+      </c>
+      <c r="I27">
+        <v>29.97</v>
+      </c>
+      <c r="J27">
+        <v>333666</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28">
+        <v>3840</v>
+      </c>
+      <c r="F28">
+        <v>2160</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>30000</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>333333</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>720</v>
+      </c>
+      <c r="F33">
+        <v>486</v>
+      </c>
+      <c r="G33">
+        <v>1001</v>
+      </c>
+      <c r="H33">
+        <v>30000</v>
+      </c>
+      <c r="I33">
+        <v>29.97</v>
+      </c>
+      <c r="J33">
+        <v>333666</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>720</v>
+      </c>
+      <c r="F34">
+        <v>576</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>25000</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>400000</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>1920</v>
+      </c>
+      <c r="F35">
+        <v>1080</v>
+      </c>
+      <c r="G35">
+        <v>1001</v>
+      </c>
+      <c r="H35">
+        <v>24000</v>
+      </c>
+      <c r="I35">
+        <v>23.975999999999999</v>
+      </c>
+      <c r="J35">
+        <v>417083</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>1920</v>
+      </c>
+      <c r="F36">
+        <v>1080</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>24000</v>
+      </c>
+      <c r="I36">
+        <v>24</v>
+      </c>
+      <c r="J36">
+        <v>416666</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37">
+        <v>1920</v>
+      </c>
+      <c r="F37">
+        <v>1080</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>25000</v>
+      </c>
+      <c r="I37">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <v>400000</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>126</v>
+      </c>
+      <c r="N37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>1920</v>
+      </c>
+      <c r="F38">
+        <v>1080</v>
+      </c>
+      <c r="G38">
+        <v>1001</v>
+      </c>
+      <c r="H38">
+        <v>30000</v>
+      </c>
+      <c r="I38">
+        <v>29.97</v>
+      </c>
+      <c r="J38">
+        <v>333666</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39">
+        <v>1920</v>
+      </c>
+      <c r="F39">
+        <v>1080</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>30000</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>333333</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>126</v>
+      </c>
+      <c r="N39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>1920</v>
+      </c>
+      <c r="F40">
+        <v>1080</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>25000</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="J40">
+        <v>400000</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>1920</v>
+      </c>
+      <c r="F41">
+        <v>1080</v>
+      </c>
+      <c r="G41">
+        <v>1001</v>
+      </c>
+      <c r="H41">
+        <v>30000</v>
+      </c>
+      <c r="I41">
+        <v>29.97</v>
+      </c>
+      <c r="J41">
+        <v>333666</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" t="s">
+        <v>126</v>
+      </c>
+      <c r="N41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>1920</v>
+      </c>
+      <c r="F42">
+        <v>1080</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>30000</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>333333</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43">
+        <v>1920</v>
+      </c>
+      <c r="F43">
+        <v>1080</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>50000</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>200000</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44">
+        <v>1920</v>
+      </c>
+      <c r="F44">
+        <v>1080</v>
+      </c>
+      <c r="G44">
+        <v>1001</v>
+      </c>
+      <c r="H44">
+        <v>60000</v>
+      </c>
+      <c r="I44">
+        <v>59.94</v>
+      </c>
+      <c r="J44">
+        <v>166833</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <v>1920</v>
+      </c>
+      <c r="F45">
+        <v>1080</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>60000</v>
+      </c>
+      <c r="I45">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>166666</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46">
+        <v>1280</v>
+      </c>
+      <c r="F46">
+        <v>720</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>50000</v>
+      </c>
+      <c r="I46">
+        <v>50</v>
+      </c>
+      <c r="J46">
+        <v>200000</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>1280</v>
+      </c>
+      <c r="F47">
+        <v>720</v>
+      </c>
+      <c r="G47">
+        <v>1001</v>
+      </c>
+      <c r="H47">
+        <v>60000</v>
+      </c>
+      <c r="I47">
+        <v>59.94</v>
+      </c>
+      <c r="J47">
+        <v>166833</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>1280</v>
+      </c>
+      <c r="F48">
+        <v>720</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>60000</v>
+      </c>
+      <c r="I48">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>166666</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49">
+        <v>3840</v>
+      </c>
+      <c r="F49">
+        <v>2160</v>
+      </c>
+      <c r="G49">
+        <v>1001</v>
+      </c>
+      <c r="H49">
+        <v>24000</v>
+      </c>
+      <c r="I49">
+        <v>23.975999999999999</v>
+      </c>
+      <c r="J49">
+        <v>417083</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50">
+        <v>3840</v>
+      </c>
+      <c r="F50">
+        <v>2160</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>24000</v>
+      </c>
+      <c r="I50">
+        <v>24</v>
+      </c>
+      <c r="J50">
+        <v>416666</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51">
+        <v>3840</v>
+      </c>
+      <c r="F51">
+        <v>2160</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>25000</v>
+      </c>
+      <c r="I51">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>400000</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52">
+        <v>3840</v>
+      </c>
+      <c r="F52">
+        <v>2160</v>
+      </c>
+      <c r="G52">
+        <v>1001</v>
+      </c>
+      <c r="H52">
+        <v>30000</v>
+      </c>
+      <c r="I52">
+        <v>29.97</v>
+      </c>
+      <c r="J52">
+        <v>333666</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53">
+        <v>3840</v>
+      </c>
+      <c r="F53">
+        <v>2160</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>30000</v>
+      </c>
+      <c r="I53">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>333333</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>126</v>
+      </c>
+      <c r="N53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4439,7 +6394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -5722,7 +7677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -6467,12 +8422,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7209,11 +9164,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
